--- a/biology/Zoologie/Alopecosa_albofasciata/Alopecosa_albofasciata.xlsx
+++ b/biology/Zoologie/Alopecosa_albofasciata/Alopecosa_albofasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alopecosa albofasciata est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alopecosa albofasciata est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du bassin méditerranéen à l'Asie centrale[1].
-En France elle se rencontre surtout dans le sud du pays et en Corse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du bassin méditerranéen à l'Asie centrale.
+En France elle se rencontre surtout dans le sud du pays et en Corse.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les friches, clairières, cistaies et sous-bois clairs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les friches, clairières, cistaies et sous-bois clairs.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 8 à 9 mm et les femelles de 10 à 12 mm[4].
-Cette espèce s'identifie à la face ventrale noire ornée de taches blanches et ses hanches rougeâtres[5]. Le dessus de la femelle est terne, on remarquera toutefois une tache cardiaque bordée de deux points blancs. Le mâle est plus caractéristique avec un plastron blanc et une tache cardiaque noire. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 8 à 9 mm et les femelles de 10 à 12 mm.
+Cette espèce s'identifie à la face ventrale noire ornée de taches blanches et ses hanches rougeâtres. Le dessus de la femelle est terne, on remarquera toutefois une tache cardiaque bordée de deux points blancs. Le mâle est plus caractéristique avec un plastron blanc et une tache cardiaque noire. 
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brullé, 1832 : Des Animaux articulé, Araneae. Expédition scientifique de Morée, section des sciences physiques, Zoologie, Paris, tome 3, p. 51-57 (texte intégral).</t>
         </is>
